--- a/홍영준18.xlsx
+++ b/홍영준18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -216,9 +216,6 @@
     <t>개수 : 업체명</t>
   </si>
   <si>
-    <t>평균 : 월 임대료</t>
-  </si>
-  <si>
     <t>2019년</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>평균 : 월 임대료(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -708,168 +708,170 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -879,13 +881,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1060,6 +1055,20 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1119,7 +1128,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1176,7 +1184,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1184,9 +1191,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1326-453A-8DA3-C05E35027908}"/>
                 </c:ext>
@@ -1597,6 +1602,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1868332495"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1614,7 +1620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2638,7 +2643,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입주일" colHeaderCaption="업종">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입주일" colHeaderCaption="업종">
   <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2727,16 +2732,16 @@
   </colItems>
   <dataFields count="2">
     <dataField name="개수 : 업체명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 월 임대료" fld="6" subtotal="average" baseField="3" baseItem="1"/>
+    <dataField name="평균 : 월 임대료(단위:원)" fld="6" subtotal="average" baseField="3" baseItem="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2750,13 +2755,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="B18:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="업체명" dataDxfId="8"/>
-    <tableColumn id="2" name="계약기간" dataDxfId="7" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="보증금_x000a_(단위:만원)" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="월 임대료_x000a_(단위:원)" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="업체명" dataDxfId="9"/>
+    <tableColumn id="2" name="계약기간" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="보증금_x000a_(단위:만원)" dataDxfId="7" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="월 임대료_x000a_(단위:원)" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3027,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3050,32 +3055,32 @@
     <row r="1" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3089,16 +3094,16 @@
       <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>43759</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="13">
         <v>9000</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <v>2900000</v>
       </c>
       <c r="I5" s="6" t="str">
@@ -3123,7 +3128,7 @@
       <c r="E6" s="3">
         <v>44532</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="22">
         <v>3</v>
       </c>
       <c r="G6" s="4">
@@ -3154,7 +3159,7 @@
       <c r="E7" s="3">
         <v>44023</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="22">
         <v>2</v>
       </c>
       <c r="G7" s="4">
@@ -3185,7 +3190,7 @@
       <c r="E8" s="3">
         <v>43759</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
       <c r="G8" s="4">
@@ -3216,7 +3221,7 @@
       <c r="E9" s="3">
         <v>43665</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="22">
         <v>3</v>
       </c>
       <c r="G9" s="4">
@@ -3247,7 +3252,7 @@
       <c r="E10" s="3">
         <v>44762</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <v>3</v>
       </c>
       <c r="G10" s="4">
@@ -3278,7 +3283,7 @@
       <c r="E11" s="3">
         <v>44648</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="22">
         <v>2</v>
       </c>
       <c r="G11" s="4">
@@ -3297,78 +3302,78 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="42">
         <v>44471</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="23">
         <v>2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="15">
         <v>3500</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="15">
         <v>790000</v>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>5위</v>
       </c>
-      <c r="J12" s="14" t="str">
+      <c r="J12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>3층</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="55">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="47">
         <f>ROUND(DAVERAGE(B4:H12,H4,D4:D5),-4)</f>
         <v>1550000</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59">
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="48">
         <f>MAX(G5:G12)</f>
         <v>9000</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="10">
         <f>COUNTIF(업종,D7)</f>
         <v>3</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <f>VLOOKUP(H14,C5:F12,4,FALSE)</f>
         <v>2</v>
       </c>
@@ -3384,7 +3389,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$H5&lt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3415,26 +3420,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3448,16 +3453,16 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="12">
         <v>43759</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="13">
         <v>9000</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="13">
         <v>2900000</v>
       </c>
     </row>
@@ -3474,7 +3479,7 @@
       <c r="E4" s="3">
         <v>44532</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="22">
         <v>3</v>
       </c>
       <c r="G4" s="4">
@@ -3497,7 +3502,7 @@
       <c r="E5" s="3">
         <v>44023</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="22">
         <v>2</v>
       </c>
       <c r="G5" s="4">
@@ -3520,7 +3525,7 @@
       <c r="E6" s="3">
         <v>43759</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="22">
         <v>2</v>
       </c>
       <c r="G6" s="4">
@@ -3543,7 +3548,7 @@
       <c r="E7" s="3">
         <v>43665</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="22">
         <v>3</v>
       </c>
       <c r="G7" s="4">
@@ -3566,7 +3571,7 @@
       <c r="E8" s="3">
         <v>44762</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <v>3</v>
       </c>
       <c r="G8" s="4">
@@ -3589,7 +3594,7 @@
       <c r="E9" s="3">
         <v>44648</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="22">
         <v>2</v>
       </c>
       <c r="G9" s="4">
@@ -3600,34 +3605,34 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="42">
         <v>44471</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>3500</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>790000</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3642,85 +3647,85 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="25">
         <v>9000</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="31">
         <v>2900000</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="26">
         <v>2</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="27">
         <v>3000</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>850000</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="26">
         <v>3</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="27">
         <v>7000</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="32">
         <v>2500000</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="38">
         <v>2</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="39">
         <v>5000</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="40">
         <v>1500000</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$H3&lt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3735,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3744,191 +3749,191 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="59"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="53" t="s">
-        <v>46</v>
+      <c r="H4" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="46">
         <v>1</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="46">
         <v>2900000</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>1350000</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="46">
         <v>1</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="46">
         <v>850000</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="54">
+      <c r="B6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="46">
         <v>1</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="46">
         <v>1600000</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>51</v>
+      <c r="G6" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="46">
+        <v>2</v>
+      </c>
+      <c r="D7" s="46">
+        <v>870000</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="54">
-        <v>2</v>
-      </c>
-      <c r="D7" s="54">
-        <v>870000</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>51</v>
+      <c r="F7" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="54">
+      <c r="B8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="46">
         <v>1</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="46">
         <v>2500000</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="46">
         <v>1</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="46">
         <v>1500000</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="46">
         <v>3</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="46">
         <v>1546666.6666666667</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="46">
         <v>3</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="46">
         <v>1816666.6666666667</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="46">
         <v>2</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="46">
         <v>1175000</v>
       </c>
       <c r="I9"/>
